--- a/Testselinum/src/test/resources/Excel/Framework.xlsx
+++ b/Testselinum/src/test/resources/Excel/Framework.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fnobl\eclipse-workspace\Testselinum\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC734493-88A1-4D92-851F-6CFFF35A644C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0644872-DA61-4C16-AC9A-574F644513BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{1A280233-B0FF-4602-866F-2A1E623593B8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Frederick</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Server</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -400,58 +406,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36B2F24-0F1D-43DF-A2FC-AC83BD3D6F4B}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>73827382783</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>320902323</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>7832832882</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>89983292</v>
       </c>
     </row>
